--- a/product/视频监控项目提测阶段功能调整.xlsx
+++ b/product/视频监控项目提测阶段功能调整.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>app不需要自动退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,13 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>nei rong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多张照片选择</t>
+    <rPh sb="0" eb="1">
+      <t>duo zhang zhao pian xuan ze</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -402,6 +409,14 @@
       <color theme="1"/>
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -624,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -648,13 +663,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,23 +703,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,12 +997,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -998,25 +1019,25 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <v>5</v>
       </c>
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="21"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1026,7 +1047,7 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1036,7 +1057,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.2">
@@ -1046,7 +1067,7 @@
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1079,7 @@
       <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1068,7 +1089,7 @@
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1078,7 +1099,7 @@
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1088,7 +1109,7 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.2">
@@ -1098,7 +1119,7 @@
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1108,7 +1129,7 @@
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="14"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.2">
@@ -1118,7 +1139,7 @@
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="14"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.2">
@@ -1128,7 +1149,7 @@
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1138,7 +1159,7 @@
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1148,7 +1169,7 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="19">
         <v>2</v>
       </c>
       <c r="D17" s="6"/>
@@ -1160,7 +1181,7 @@
       <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
@@ -1176,24 +1197,29 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/product/视频监控项目提测阶段功能调整.xlsx
+++ b/product/视频监控项目提测阶段功能调整.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>app不需要自动退出</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,22 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短信使用四位数随机，并且附带下载地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入友盟app使用数据统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增的代理商排在最上面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以在后台“设备管理”对设备状态进行筛选“全部、已绑定、未绑定”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>财务信息-代理商财务增加“查看流水”功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +59,6 @@
   </si>
   <si>
     <t>“流水账单”增加备注信息，备注用弹窗处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商可以进行设备报修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,10 +353,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多张照片选择</t>
-    <rPh sb="0" eb="1">
-      <t>duo zhang zhao pian xuan ze</t>
-    </rPh>
+    <t>短信使用四位数随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入友盟app使用数据统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商可以进行设备报修（设备号、故障描述、标记、联系人）</t>
+    <rPh sb="12" eb="13">
+      <t>she bei hao</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>gu zhang miao shu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>biao ji</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>lian xi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在后台“设备管理”对设备状态进行筛选“全部、已绑定、未绑定”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,6 +422,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,9 +669,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -673,6 +682,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -703,7 +715,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1006,24 +1021,24 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="20">
         <v>5</v>
@@ -1031,143 +1046,143 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
+      <c r="A5" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
+      <c r="A6" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
+      <c r="A7" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
+      <c r="A8" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
+      <c r="A9" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
+      <c r="A10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
+      <c r="A12" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
+      <c r="A13" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="21"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="36" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="21"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="19">
         <v>2</v>
@@ -1175,21 +1190,21 @@
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
+      <c r="A18" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -1197,29 +1212,27 @@
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" ht="19" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>8</v>
+      <c r="A20" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="9">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8">
         <v>2</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="15"/>
     </row>
     <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="A22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
